--- a/convert.xlsx
+++ b/convert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -428,51 +428,6 @@
   </x:si>
   <x:si>
     <x:t>Details of Accounts successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Automatically Assign Users/Queues Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Leads Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of recent Leads displayed, select the appropriate Lead.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the Country is set to equals US,USA,United States,United States of America Country is set to equals US,USA,United States,United States of America Country is set to equals US,USA,United States,United States of America Country is set to equals US,USA,United States,United States of America .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Country is set to equals US,USA,United States,United States of America Country is set to equals US,USA,United States,United States of America Country is set to equals US,USA,United States,United States of America Country is set to equals US,USA,United States,United States of America .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Lead Details page, validate the Lead Owner.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Lead Owner is User:thirupathi@transitusnexgen.com User:thirupathi@transitusnexgen.com .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead-Lead Validation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Lead update with values.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Lead details should be verified.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down to locate Open Activities section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User able to validate the Task details.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the Subject field value is as provided in the Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Should be able to validate the field details</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -556,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K56" totalsRowShown="0">
-  <x:autoFilter ref="A1:K56"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K47" totalsRowShown="0">
+  <x:autoFilter ref="A1:K47"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -863,7 +818,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K56"/>
+  <x:dimension ref="A1:K47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -871,12 +826,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="44.550625000000004" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="59.840625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="267.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="285.55062499999997" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="122.70062499999999" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -1896,193 +1851,6 @@
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
       <x:c r="K47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:11">
-      <x:c r="A48" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s"/>
-      <x:c r="F48" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
-      <x:c r="K48" s="0" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:11">
-      <x:c r="A49" s="0" t="s"/>
-      <x:c r="B49" s="0" t="s"/>
-      <x:c r="C49" s="0" t="s"/>
-      <x:c r="D49" s="0" t="s"/>
-      <x:c r="E49" s="0" t="s"/>
-      <x:c r="F49" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s"/>
-      <x:c r="J49" s="0" t="s"/>
-      <x:c r="K49" s="0" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:11">
-      <x:c r="A50" s="0" t="s"/>
-      <x:c r="B50" s="0" t="s"/>
-      <x:c r="C50" s="0" t="s"/>
-      <x:c r="D50" s="0" t="s"/>
-      <x:c r="E50" s="0" t="s"/>
-      <x:c r="F50" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="s"/>
-      <x:c r="J50" s="0" t="s"/>
-      <x:c r="K50" s="0" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:11">
-      <x:c r="A51" s="0" t="s"/>
-      <x:c r="B51" s="0" t="s"/>
-      <x:c r="C51" s="0" t="s"/>
-      <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s"/>
-      <x:c r="F51" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s"/>
-      <x:c r="J51" s="0" t="s"/>
-      <x:c r="K51" s="0" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:11">
-      <x:c r="A52" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s"/>
-      <x:c r="F52" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="I52" s="0" t="s"/>
-      <x:c r="J52" s="0" t="s"/>
-      <x:c r="K52" s="0" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:11">
-      <x:c r="A53" s="0" t="s"/>
-      <x:c r="B53" s="0" t="s"/>
-      <x:c r="C53" s="0" t="s"/>
-      <x:c r="D53" s="0" t="s"/>
-      <x:c r="E53" s="0" t="s"/>
-      <x:c r="F53" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G53" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I53" s="0" t="s"/>
-      <x:c r="J53" s="0" t="s"/>
-      <x:c r="K53" s="0" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:11">
-      <x:c r="A54" s="0" t="s"/>
-      <x:c r="B54" s="0" t="s"/>
-      <x:c r="C54" s="0" t="s"/>
-      <x:c r="D54" s="0" t="s"/>
-      <x:c r="E54" s="0" t="s"/>
-      <x:c r="F54" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s"/>
-      <x:c r="J54" s="0" t="s"/>
-      <x:c r="K54" s="0" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:11">
-      <x:c r="A55" s="0" t="s"/>
-      <x:c r="B55" s="0" t="s"/>
-      <x:c r="C55" s="0" t="s"/>
-      <x:c r="D55" s="0" t="s"/>
-      <x:c r="E55" s="0" t="s"/>
-      <x:c r="F55" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G55" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="I55" s="0" t="s"/>
-      <x:c r="J55" s="0" t="s"/>
-      <x:c r="K55" s="0" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:11">
-      <x:c r="A56" s="0" t="s"/>
-      <x:c r="B56" s="0" t="s"/>
-      <x:c r="C56" s="0" t="s"/>
-      <x:c r="D56" s="0" t="s"/>
-      <x:c r="E56" s="0" t="s"/>
-      <x:c r="F56" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s"/>
-      <x:c r="J56" s="0" t="s"/>
-      <x:c r="K56" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
